--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_21.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_21.xlsx
@@ -508,50 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_9</t>
+          <t>model_1_21_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9847077363677832</v>
+        <v>0.8465928771401985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7797963686397394</v>
+        <v>0.6181349557766304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7835105656494777</v>
+        <v>0.7209771352061856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9915725220178133</v>
+        <v>0.7017196612834438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06365445562410633</v>
+        <v>0.3636044327825919</v>
       </c>
       <c r="G2" t="n">
-        <v>1.472502696850552</v>
+        <v>2.553533309048523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7743701538931769</v>
+        <v>0.9980486086922048</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01906268159750774</v>
+        <v>0.3318252029387196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7953793615910694</v>
+        <v>1.156242683162027</v>
       </c>
       <c r="K2" t="n">
-        <v>0.252298346455355</v>
+        <v>0.6029962129089965</v>
       </c>
       <c r="L2" t="n">
-        <v>1.978704872461876</v>
+        <v>0.7911051944036745</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2562717932062083</v>
+        <v>0.6124928004872432</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5085719089578</v>
+        <v>36.02337745076372</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8437444521742</v>
+        <v>72.98796103898954</v>
       </c>
     </row>
     <row r="3">
@@ -561,438 +561,438 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9844386457182893</v>
+        <v>0.8469231461315478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7795571067597717</v>
+        <v>0.6176110896408722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7833744515003714</v>
+        <v>0.7211739595680593</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9917816658670778</v>
+        <v>0.7007125552932459</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06477455263649269</v>
+        <v>0.3628216316516757</v>
       </c>
       <c r="G3" t="n">
-        <v>1.474102642143596</v>
+        <v>2.557036404310519</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7748570263121783</v>
+        <v>0.9973445793623148</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01858960500032966</v>
+        <v>0.3329455689374178</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8028287172445204</v>
+        <v>1.1514442698731</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2545084529765027</v>
+        <v>0.6023467702674894</v>
       </c>
       <c r="L3" t="n">
-        <v>1.995926674029484</v>
+        <v>0.791554922391895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2585167066957681</v>
+        <v>0.6118331297733368</v>
       </c>
       <c r="N3" t="n">
-        <v>135.4736849179603</v>
+        <v>36.02768787668178</v>
       </c>
       <c r="O3" t="n">
-        <v>276.8088574611767</v>
+        <v>72.9922714649076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_7</t>
+          <t>model_1_21_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9841630260835079</v>
+        <v>0.8469582318996274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7793223463143562</v>
+        <v>0.6175887413974783</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7832122235412071</v>
+        <v>0.7212031959884917</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9919794009136008</v>
+        <v>0.7006311990655922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06592182672444138</v>
+        <v>0.3627384716225747</v>
       </c>
       <c r="G4" t="n">
-        <v>1.475672486323063</v>
+        <v>2.557185847116998</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7754373063155917</v>
+        <v>0.9972400023816531</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01814233474456585</v>
+        <v>0.3330360745566204</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8102936015367215</v>
+        <v>1.150849560226862</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2567524619637393</v>
+        <v>0.6022777362833319</v>
       </c>
       <c r="L4" t="n">
-        <v>2.013566330655493</v>
+        <v>0.7916026987569394</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2607960565813676</v>
+        <v>0.6117630085729375</v>
       </c>
       <c r="N4" t="n">
-        <v>135.4385713650649</v>
+        <v>36.02814633645149</v>
       </c>
       <c r="O4" t="n">
-        <v>276.7737439082813</v>
+        <v>72.99272992467732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_6</t>
+          <t>model_1_21_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9838799123427814</v>
+        <v>0.8468673288855105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.77911147004129</v>
+        <v>0.6175557008344188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7831172402296162</v>
+        <v>0.7210180951376797</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9921534736756633</v>
+        <v>0.7012042526950185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06710029522845617</v>
+        <v>0.3629539292771478</v>
       </c>
       <c r="G5" t="n">
-        <v>1.477082616932052</v>
+        <v>2.557406789514316</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7757770561137036</v>
+        <v>0.997902097392244</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01774858780805526</v>
+        <v>0.3323985748216485</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8178554597200893</v>
+        <v>1.147891022900839</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2590372467975526</v>
+        <v>0.6024565787483342</v>
       </c>
       <c r="L5" t="n">
-        <v>2.031685610061992</v>
+        <v>0.7914789159292058</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2631168244923666</v>
+        <v>0.6119446676279867</v>
       </c>
       <c r="N5" t="n">
-        <v>135.4031336703724</v>
+        <v>36.02695873872752</v>
       </c>
       <c r="O5" t="n">
-        <v>276.7383062135888</v>
+        <v>72.99154232695334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_5</t>
+          <t>model_1_21_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9835947224055582</v>
+        <v>0.8444789954333775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7789148986733476</v>
+        <v>0.6163633672136561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7828847106439389</v>
+        <v>0.7182307704949817</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9923525288389721</v>
+        <v>0.702615934121029</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06828740595581521</v>
+        <v>0.3686147396356876</v>
       </c>
       <c r="G6" t="n">
-        <v>1.478397090574611</v>
+        <v>2.565379929926547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7766088009588311</v>
+        <v>1.007872196020805</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0172983314909797</v>
+        <v>0.330828134484594</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8258873447095234</v>
+        <v>1.180528132948677</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2613185909112002</v>
+        <v>0.6071365082382113</v>
       </c>
       <c r="L6" t="n">
-        <v>2.049937766044273</v>
+        <v>0.7882267171858757</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2654340974952967</v>
+        <v>0.6166983013291162</v>
       </c>
       <c r="N6" t="n">
-        <v>135.3680598448827</v>
+        <v>35.99600649277232</v>
       </c>
       <c r="O6" t="n">
-        <v>276.7032323880991</v>
+        <v>72.96059008099814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_4</t>
+          <t>model_1_21_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9833145881770339</v>
+        <v>0.8445804339583001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7787826070810779</v>
+        <v>0.6162893252261283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7823155208622656</v>
+        <v>0.7182584364034472</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9925918476958617</v>
+        <v>0.7023203371950235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06945347216074484</v>
+        <v>0.3683743107909949</v>
       </c>
       <c r="G7" t="n">
-        <v>1.479281725061264</v>
+        <v>2.565875049038077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7786447598043563</v>
+        <v>1.007773236670386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01675700000618545</v>
+        <v>0.3311569744959132</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8345366615149216</v>
+        <v>1.183452565713508</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2635402666780635</v>
+        <v>0.6069384736453893</v>
       </c>
       <c r="L7" t="n">
-        <v>2.067866356669832</v>
+        <v>0.7883648462410895</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2676907624346271</v>
+        <v>0.6164971478894192</v>
       </c>
       <c r="N7" t="n">
-        <v>135.3341964318328</v>
+        <v>35.99731141774011</v>
       </c>
       <c r="O7" t="n">
-        <v>276.6693689750492</v>
+        <v>72.96189500596593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_0</t>
+          <t>model_1_21_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9818789708914021</v>
+        <v>0.844471574845778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7785353810870069</v>
+        <v>0.6162292076773881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.77869489942405</v>
+        <v>0.7181508584829897</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9918515136963479</v>
+        <v>0.7022931679461625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07542926743862137</v>
+        <v>0.3686323278577644</v>
       </c>
       <c r="G8" t="n">
-        <v>1.480934926421988</v>
+        <v>2.566277055363318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7915955127531605</v>
+        <v>1.008158036654136</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01843161147813146</v>
+        <v>0.3311871992219404</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8699246885951646</v>
+        <v>1.185116219385273</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2746438920468128</v>
+        <v>0.6071509926350812</v>
       </c>
       <c r="L8" t="n">
-        <v>2.159745862950267</v>
+        <v>0.788216612555953</v>
       </c>
       <c r="M8" t="n">
-        <v>0.278969258803381</v>
+        <v>0.6167130138407577</v>
       </c>
       <c r="N8" t="n">
-        <v>135.1691198339356</v>
+        <v>35.99591106629804</v>
       </c>
       <c r="O8" t="n">
-        <v>276.504292377152</v>
+        <v>72.96049465452387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_3</t>
+          <t>model_1_21_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9829974252286836</v>
+        <v>0.8451260540784982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7783787176706558</v>
+        <v>0.6158942272153053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7819912382464217</v>
+        <v>0.7185092723960397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.992603390060266</v>
+        <v>0.7017718386294416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07077367140049885</v>
+        <v>0.3670810860005091</v>
       </c>
       <c r="G9" t="n">
-        <v>1.481982535408497</v>
+        <v>2.56851707125571</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7798046999182437</v>
+        <v>1.006876010869189</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01673089155262613</v>
+        <v>0.3317671576833768</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8445196369067435</v>
+        <v>1.178518667663872</v>
       </c>
       <c r="K9" t="n">
-        <v>0.266033214844498</v>
+        <v>0.6058721696864027</v>
       </c>
       <c r="L9" t="n">
-        <v>2.088164785364249</v>
+        <v>0.7891078183196572</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2702229720426491</v>
+        <v>0.6154140507089915</v>
       </c>
       <c r="N9" t="n">
-        <v>135.2965364406373</v>
+        <v>36.0043450251023</v>
       </c>
       <c r="O9" t="n">
-        <v>276.6317089838537</v>
+        <v>72.96892861332812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_2</t>
+          <t>model_1_21_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9826741971071469</v>
+        <v>0.8446030993285809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7782722609880551</v>
+        <v>0.6158468935966791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7813464148328879</v>
+        <v>0.7180545569721408</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9926670865246486</v>
+        <v>0.702171668715351</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07211911708556255</v>
+        <v>0.3683205894972821</v>
       </c>
       <c r="G10" t="n">
-        <v>1.482694411735236</v>
+        <v>2.568833591381414</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7821111958794446</v>
+        <v>1.00850250157456</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01658681221809928</v>
+        <v>0.3313223623610678</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8533854119439993</v>
+        <v>1.182467772103017</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2685500271561382</v>
+        <v>0.6068942160684035</v>
       </c>
       <c r="L10" t="n">
-        <v>2.1088513851426</v>
+        <v>0.7883957097240251</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2727794216323082</v>
+        <v>0.6164521932998374</v>
       </c>
       <c r="N10" t="n">
-        <v>135.2588722460373</v>
+        <v>35.99760310589371</v>
       </c>
       <c r="O10" t="n">
-        <v>276.5940447892537</v>
+        <v>72.96218669411952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_1</t>
+          <t>model_1_21_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9823380177961996</v>
+        <v>0.8454507329000061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7780285710892736</v>
+        <v>0.615176014054055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7810513628183923</v>
+        <v>0.7185041910430028</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9926722608890852</v>
+        <v>0.7010763053556048</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07351847244230361</v>
+        <v>0.3663115346489805</v>
       </c>
       <c r="G11" t="n">
-        <v>1.484323967210476</v>
+        <v>2.573319765972058</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7831665798271965</v>
+        <v>1.006894186574368</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0165751079737295</v>
+        <v>0.3325409112292343</v>
       </c>
       <c r="J11" t="n">
-        <v>0.862211100040354</v>
+        <v>1.173643929203151</v>
       </c>
       <c r="K11" t="n">
-        <v>0.271142900409182</v>
+        <v>0.6052367591686583</v>
       </c>
       <c r="L11" t="n">
-        <v>2.130366861043228</v>
+        <v>0.7895499341617104</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2754131300471652</v>
+        <v>0.61476863311077</v>
       </c>
       <c r="N11" t="n">
-        <v>135.2204371571895</v>
+        <v>36.0085422401399</v>
       </c>
       <c r="O11" t="n">
-        <v>276.5556097004059</v>
+        <v>72.97312582836572</v>
       </c>
     </row>
   </sheetData>
